--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Snca-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Snca-Lag3.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Snca</t>
+  </si>
+  <si>
+    <t>Lag3</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Snca</t>
-  </si>
-  <si>
-    <t>Lag3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -531,19 +531,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2606375</v>
+        <v>0.01237333333333333</v>
       </c>
       <c r="H2">
-        <v>0.5212749999999999</v>
+        <v>0.03712</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.193220000000002</v>
+        <v>4.850457666666666</v>
       </c>
       <c r="N2">
-        <v>24.57966</v>
+        <v>14.551373</v>
       </c>
       <c r="O2">
-        <v>0.1855955251559942</v>
+        <v>0.1317659673285644</v>
       </c>
       <c r="P2">
-        <v>0.1965036999288476</v>
+        <v>0.1354819285975933</v>
       </c>
       <c r="Q2">
-        <v>2.13546037775</v>
+        <v>0.06001632952888888</v>
       </c>
       <c r="R2">
-        <v>12.8127622665</v>
+        <v>0.54014696576</v>
       </c>
       <c r="S2">
-        <v>0.1855955251559942</v>
+        <v>0.1317659673285644</v>
       </c>
       <c r="T2">
-        <v>0.1965036999288476</v>
+        <v>0.1354819285975933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,19 +593,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2606375</v>
+        <v>0.01237333333333333</v>
       </c>
       <c r="H3">
-        <v>0.5212749999999999</v>
+        <v>0.03712</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>22.973198</v>
       </c>
       <c r="O3">
-        <v>0.1734654892428387</v>
+        <v>0.208027493838598</v>
       </c>
       <c r="P3">
-        <v>0.1836607343713461</v>
+        <v>0.2138941233307932</v>
       </c>
       <c r="Q3">
-        <v>1.995892297908333</v>
+        <v>0.09475167886222223</v>
       </c>
       <c r="R3">
-        <v>11.97535378745</v>
+        <v>0.85276510976</v>
       </c>
       <c r="S3">
-        <v>0.1734654892428387</v>
+        <v>0.208027493838598</v>
       </c>
       <c r="T3">
-        <v>0.1836607343713461</v>
+        <v>0.2138941233307932</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,19 +655,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2606375</v>
+        <v>0.01237333333333333</v>
       </c>
       <c r="H4">
-        <v>0.5212749999999999</v>
+        <v>0.03712</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.307941</v>
+        <v>10.683974</v>
       </c>
       <c r="N4">
-        <v>33.923823</v>
+        <v>32.051922</v>
       </c>
       <c r="O4">
-        <v>0.2561512138485232</v>
+        <v>0.290237389081408</v>
       </c>
       <c r="P4">
-        <v>0.2712062223493464</v>
+        <v>0.2984224380626923</v>
       </c>
       <c r="Q4">
-        <v>2.947273472387499</v>
+        <v>0.1321963716266667</v>
       </c>
       <c r="R4">
-        <v>17.683640834325</v>
+        <v>1.18976734464</v>
       </c>
       <c r="S4">
-        <v>0.2561512138485232</v>
+        <v>0.290237389081408</v>
       </c>
       <c r="T4">
-        <v>0.2712062223493464</v>
+        <v>0.2984224380626923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,19 +717,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2606375</v>
+        <v>0.01237333333333333</v>
       </c>
       <c r="H5">
-        <v>0.5212749999999999</v>
+        <v>0.03712</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.351732999999999</v>
+        <v>3.028939</v>
       </c>
       <c r="N5">
-        <v>14.703466</v>
+        <v>6.057878000000001</v>
       </c>
       <c r="O5">
-        <v>0.1665338837406602</v>
+        <v>0.08228317918471638</v>
       </c>
       <c r="P5">
-        <v>0.1175478208721362</v>
+        <v>0.05640244358033648</v>
       </c>
       <c r="Q5">
-        <v>1.9161373097875</v>
+        <v>0.03747807189333334</v>
       </c>
       <c r="R5">
-        <v>7.664549239149999</v>
+        <v>0.22486843136</v>
       </c>
       <c r="S5">
-        <v>0.1665338837406602</v>
+        <v>0.08228317918471638</v>
       </c>
       <c r="T5">
-        <v>0.1175478208721362</v>
+        <v>0.05640244358033648</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2606375</v>
+        <v>0.01237333333333333</v>
       </c>
       <c r="H6">
-        <v>0.5212749999999999</v>
+        <v>0.03712</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.634942000000001</v>
+        <v>10.59005333333333</v>
       </c>
       <c r="N6">
-        <v>28.904826</v>
+        <v>31.77016</v>
       </c>
       <c r="O6">
-        <v>0.2182538880119836</v>
+        <v>0.2876859705667131</v>
       </c>
       <c r="P6">
-        <v>0.2310815224783236</v>
+        <v>0.2957990664285848</v>
       </c>
       <c r="Q6">
-        <v>2.511227195525</v>
+        <v>0.1310342599111111</v>
       </c>
       <c r="R6">
-        <v>15.06736317315</v>
+        <v>1.1793083392</v>
       </c>
       <c r="S6">
-        <v>0.2182538880119836</v>
+        <v>0.2876859705667131</v>
       </c>
       <c r="T6">
-        <v>0.2310815224783236</v>
+        <v>0.2957990664285848</v>
       </c>
     </row>
   </sheetData>
